--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25408"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66F0AFD-4EB9-4B55-B918-666FA9990E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A053970F-3A07-4DAD-B570-C05A02D0F68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Indian Cat</t>
   </si>
   <si>
-    <t>Kutia</t>
+    <t>Radha</t>
   </si>
   <si>
     <t>Dog</t>
@@ -59,7 +59,7 @@
     <t>Indian Street Dog</t>
   </si>
   <si>
-    <t>Sundari</t>
+    <t>Shyama</t>
   </si>
   <si>
     <t>Cow</t>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Shadow</t>
+  </si>
+  <si>
+    <t>Kalu</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,6 +504,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
